--- a/Dokumente/Zeiterfassung/Zeiterfassung.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F75496-4E94-46C3-A37D-E4838D781AA3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
   <si>
     <t>Stunden</t>
   </si>
@@ -79,11 +80,14 @@
   <si>
     <t>GESAMTZEIT TEAM</t>
   </si>
+  <si>
+    <t>Besprechung Organisation, Funktionen &amp; Funktionsbereiche</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -368,15 +372,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="B6:G46" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="B6:G46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="B6:G46" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="B6:G46" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="6" name="Stunden" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Stunden" dataDxfId="8">
       <calculatedColumnFormula>F7-E7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -385,15 +389,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle35" displayName="Tabelle35" ref="B51:G91" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="B51:G91"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle35" displayName="Tabelle35" ref="B51:G91" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="B51:G91" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="6" name="Stunden" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="bis"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Stunden" dataDxfId="6">
       <calculatedColumnFormula>F52-E52</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -402,15 +406,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle356" displayName="Tabelle356" ref="B96:G136" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="B96:G136"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle356" displayName="Tabelle356" ref="B96:G136" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="B96:G136" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="6" name="Stunden" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="bis"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Stunden" dataDxfId="4">
       <calculatedColumnFormula>F97-E97</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -419,15 +423,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle3567" displayName="Tabelle3567" ref="B141:G181" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="B141:G181"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle3567" displayName="Tabelle3567" ref="B141:G181" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="B141:G181" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="6" name="Stunden" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="bis"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Stunden" dataDxfId="2">
       <calculatedColumnFormula>F142-E142</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -436,15 +440,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle35678" displayName="Tabelle35678" ref="B186:G226" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B186:G226"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle35678" displayName="Tabelle35678" ref="B186:G226" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B186:G226" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="6" name="Stunden" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="bis"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Stunden" dataDxfId="0">
       <calculatedColumnFormula>F187-E187</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -748,11 +752,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C234" sqref="C234"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,11 +829,24 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="11">
+        <v>43178</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.5625</v>
+      </c>
       <c r="G8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -1138,7 +1155,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="10">
         <f>SUM(G7:G45)</f>
-        <v>7.291666666666663E-2</v>
+        <v>0.13541666666666663</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -2729,7 +2746,7 @@
       <c r="F228" s="13"/>
       <c r="G228" s="14">
         <f>SUM(G46,G91,G136,G181,G226)</f>
-        <v>0.32291666666666641</v>
+        <v>0.38541666666666641</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Zeiterfassung.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F75496-4E94-46C3-A37D-E4838D781AA3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A683F806-D26E-4249-A74E-C6FBE6B5346E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
   <si>
     <t>Stunden</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Besprechung Organisation, Funktionen &amp; Funktionsbereiche</t>
+  </si>
+  <si>
+    <t>Erstellung Dokument zu Organisation und Infrastruktur, Erstellung Dokument Funktionen</t>
   </si>
 </sst>
 </file>
@@ -756,7 +759,7 @@
   <dimension ref="B2:G228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,11 +853,24 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="11">
+        <v>43178</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.78125</v>
+      </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.11458333333333337</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -1155,7 +1171,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="10">
         <f>SUM(G7:G45)</f>
-        <v>0.13541666666666663</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -1205,12 +1221,24 @@
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="11">
+        <v>43178</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0.5625</v>
+      </c>
       <c r="G53" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
@@ -1556,7 +1584,7 @@
       <c r="F91" s="9"/>
       <c r="G91" s="10">
         <f>SUM(G52:G90)</f>
-        <v>4.166666666666663E-2</v>
+        <v>0.10416666666666663</v>
       </c>
     </row>
     <row r="94" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -1584,147 +1612,159 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D97" s="6"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="11">
+        <v>43178</v>
+      </c>
+      <c r="E97" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F97" s="7">
+        <v>0.5625</v>
+      </c>
       <c r="G97" s="7">
-        <f t="shared" ref="G97:G135" si="2">F97-E97</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G97" si="2">F97-E97</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G97:G135" si="3">F98-E98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
       <c r="G112" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1733,7 +1773,7 @@
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1742,7 +1782,7 @@
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1751,7 +1791,7 @@
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1760,7 +1800,7 @@
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1769,7 +1809,7 @@
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1778,7 +1818,7 @@
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1787,7 +1827,7 @@
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1796,7 +1836,7 @@
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1805,7 +1845,7 @@
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1814,7 +1854,7 @@
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1823,7 +1863,7 @@
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1832,7 +1872,7 @@
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1841,7 +1881,7 @@
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1850,7 +1890,7 @@
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1859,7 +1899,7 @@
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
       <c r="G127" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1868,7 +1908,7 @@
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1877,7 +1917,7 @@
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1886,7 +1926,7 @@
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
       <c r="G130" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1895,7 +1935,7 @@
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
       <c r="G131" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1904,7 +1944,7 @@
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
       <c r="G132" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1913,7 +1953,7 @@
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
       <c r="G133" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1922,7 +1962,7 @@
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1931,7 +1971,7 @@
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1945,7 +1985,7 @@
       <c r="F136" s="9"/>
       <c r="G136" s="10">
         <f>SUM(G97:G135)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="139" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -1990,7 +2030,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="G142" s="7">
-        <f t="shared" ref="G142:G180" si="3">F142-E142</f>
+        <f t="shared" ref="G142:G180" si="4">F142-E142</f>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
@@ -2011,7 +2051,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="G143" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.291666666666663E-2</v>
       </c>
     </row>
@@ -2032,151 +2072,163 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G144" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2083333333333259E-2</v>
       </c>
     </row>
-    <row r="145" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6"/>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" s="11">
+        <v>43178</v>
+      </c>
+      <c r="E145" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F145" s="7">
+        <v>0.5625</v>
+      </c>
       <c r="G145" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
       <c r="G146" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
       <c r="G147" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
       <c r="G149" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
       <c r="G151" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
       <c r="G152" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
       <c r="G155" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
       <c r="G158" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2185,7 +2237,7 @@
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2194,7 +2246,7 @@
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2203,7 +2255,7 @@
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2212,7 +2264,7 @@
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2221,7 +2273,7 @@
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
       <c r="G165" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2230,7 +2282,7 @@
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
       <c r="G166" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2239,7 +2291,7 @@
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2248,7 +2300,7 @@
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2257,7 +2309,7 @@
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="G169" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2266,7 +2318,7 @@
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
       <c r="G170" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2275,7 +2327,7 @@
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
       <c r="G171" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2284,7 +2336,7 @@
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2293,7 +2345,7 @@
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
       <c r="G173" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2302,7 +2354,7 @@
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
       <c r="G174" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2311,7 +2363,7 @@
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2320,7 +2372,7 @@
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2329,7 +2381,7 @@
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
       <c r="G177" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2338,7 +2390,7 @@
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2347,7 +2399,7 @@
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
       <c r="G179" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2356,7 +2408,7 @@
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2370,7 +2422,7 @@
       <c r="F181" s="9"/>
       <c r="G181" s="10">
         <f>SUM(G142:G180)</f>
-        <v>0.16666666666666652</v>
+        <v>0.22916666666666652</v>
       </c>
     </row>
     <row r="184" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -2415,23 +2467,36 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="G187" s="7">
-        <f t="shared" ref="G187:G225" si="4">F187-E187</f>
+        <f t="shared" ref="G187:G225" si="5">F187-E187</f>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E188" s="6"/>
-      <c r="F188" s="6"/>
+      <c r="B188" t="s">
+        <v>15</v>
+      </c>
+      <c r="C188" t="s">
+        <v>18</v>
+      </c>
+      <c r="D188" s="11">
+        <v>43178</v>
+      </c>
+      <c r="E188" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F188" s="7">
+        <v>0.5625</v>
+      </c>
       <c r="G188" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
       <c r="G189" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2439,7 +2504,7 @@
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2447,7 +2512,7 @@
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2455,7 +2520,7 @@
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2463,7 +2528,7 @@
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
       <c r="G193" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2471,7 +2536,7 @@
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
       <c r="G194" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2479,7 +2544,7 @@
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2487,7 +2552,7 @@
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
       <c r="G196" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2495,7 +2560,7 @@
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2503,7 +2568,7 @@
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2511,7 +2576,7 @@
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
       <c r="G199" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2519,7 +2584,7 @@
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2527,7 +2592,7 @@
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
       <c r="G201" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2535,7 +2600,7 @@
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
       <c r="G202" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2543,7 +2608,7 @@
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
       <c r="G203" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2551,7 +2616,7 @@
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
       <c r="G204" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2559,7 +2624,7 @@
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
       <c r="G205" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2567,7 +2632,7 @@
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
       <c r="G206" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2575,7 +2640,7 @@
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
       <c r="G207" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2583,7 +2648,7 @@
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
       <c r="G208" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2591,7 +2656,7 @@
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
       <c r="G209" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2599,7 +2664,7 @@
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
       <c r="G210" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2607,7 +2672,7 @@
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
       <c r="G211" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2615,7 +2680,7 @@
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
       <c r="G212" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2623,7 +2688,7 @@
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
       <c r="G213" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2631,7 +2696,7 @@
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
       <c r="G214" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2639,7 +2704,7 @@
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
       <c r="G215" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2647,7 +2712,7 @@
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
       <c r="G216" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2655,7 +2720,7 @@
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
       <c r="G217" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2663,7 +2728,7 @@
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
       <c r="G218" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2671,7 +2736,7 @@
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
       <c r="G219" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2679,7 +2744,7 @@
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
       <c r="G220" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2687,7 +2752,7 @@
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
       <c r="G221" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2695,7 +2760,7 @@
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
       <c r="G222" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2703,7 +2768,7 @@
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2711,7 +2776,7 @@
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2719,7 +2784,7 @@
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
       <c r="G225" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2733,7 +2798,7 @@
       <c r="F226" s="9"/>
       <c r="G226" s="10">
         <f>SUM(G187:G225)</f>
-        <v>4.166666666666663E-2</v>
+        <v>0.10416666666666663</v>
       </c>
     </row>
     <row r="228" spans="2:7" ht="21" x14ac:dyDescent="0.35">
@@ -2746,7 +2811,7 @@
       <c r="F228" s="13"/>
       <c r="G228" s="14">
         <f>SUM(G46,G91,G136,G181,G226)</f>
-        <v>0.38541666666666641</v>
+        <v>0.74999999999999978</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Zeiterfassung.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majad\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A683F806-D26E-4249-A74E-C6FBE6B5346E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
   <si>
     <t>Stunden</t>
   </si>
@@ -86,11 +85,14 @@
   <si>
     <t>Erstellung Dokument zu Organisation und Infrastruktur, Erstellung Dokument Funktionen</t>
   </si>
+  <si>
+    <t xml:space="preserve">Besprechung von Sollzeiten von Funktionen </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -248,7 +250,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -268,7 +270,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -290,7 +291,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -312,7 +312,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -334,7 +333,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -356,7 +354,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -375,15 +372,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="B6:G46" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="B6:G46" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="B6:G46" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="B6:G46"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Stunden" dataDxfId="8">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="6" name="Stunden" dataDxfId="8">
       <calculatedColumnFormula>F7-E7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -392,15 +389,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle35" displayName="Tabelle35" ref="B51:G91" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="B51:G91" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle35" displayName="Tabelle35" ref="B51:G91" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="B51:G91"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Art"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Beschreibung"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="von"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="bis"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Stunden" dataDxfId="6">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="6" name="Stunden" dataDxfId="6">
       <calculatedColumnFormula>F52-E52</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -409,15 +406,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle356" displayName="Tabelle356" ref="B96:G136" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="B96:G136" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle356" displayName="Tabelle356" ref="B96:G136" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="B96:G136"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Art"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Beschreibung"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="von"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="bis"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Stunden" dataDxfId="4">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="6" name="Stunden" dataDxfId="4">
       <calculatedColumnFormula>F97-E97</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -426,15 +423,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle3567" displayName="Tabelle3567" ref="B141:G181" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="B141:G181" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle3567" displayName="Tabelle3567" ref="B141:G181" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="B141:G181"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Art"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Beschreibung"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="von"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="bis"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Stunden" dataDxfId="2">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="6" name="Stunden" dataDxfId="2">
       <calculatedColumnFormula>F142-E142</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -443,15 +440,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle35678" displayName="Tabelle35678" ref="B186:G226" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B186:G226" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle35678" displayName="Tabelle35678" ref="B186:G226" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B186:G226"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Art"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Beschreibung"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="von"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="bis"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Stunden" dataDxfId="0">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="6" name="Stunden" dataDxfId="0">
       <calculatedColumnFormula>F187-E187</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -755,42 +752,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C48" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="81.54296875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -810,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -831,7 +828,7 @@
         <v>7.291666666666663E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -852,7 +849,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -873,7 +870,7 @@
         <v>0.11458333333333337</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="7">
@@ -881,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7">
@@ -889,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7">
@@ -897,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7">
@@ -905,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7">
@@ -913,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7">
@@ -921,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7">
@@ -929,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7">
@@ -937,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7">
@@ -945,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7">
@@ -953,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="7">
@@ -961,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7">
@@ -969,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7">
@@ -977,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7">
@@ -985,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7">
@@ -993,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7">
@@ -1001,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="7">
@@ -1009,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="7">
@@ -1017,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="7">
@@ -1025,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="7">
@@ -1033,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="7">
@@ -1041,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="7">
@@ -1049,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="7">
@@ -1057,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="7">
@@ -1065,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="7">
@@ -1073,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="7">
@@ -1081,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="7">
@@ -1089,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="7">
@@ -1097,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="7">
@@ -1105,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="7">
@@ -1113,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="7">
@@ -1121,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="7">
@@ -1129,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="7">
@@ -1137,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="7">
@@ -1145,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="7">
@@ -1153,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="7">
@@ -1161,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B46" s="8" t="s">
         <v>7</v>
       </c>
@@ -1174,12 +1171,12 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B49" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B51" s="1" t="s">
         <v>1</v>
       </c>
@@ -1199,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>15</v>
       </c>
@@ -1220,7 +1217,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>15</v>
       </c>
@@ -1241,16 +1238,28 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="11">
+        <v>43179</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0.6875</v>
+      </c>
       <c r="G54" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+        <v>5.208333333333337E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -1259,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -1268,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -1277,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -1286,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -1295,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -1304,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -1313,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -1322,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -1331,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -1340,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -1349,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -1358,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -1367,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -1376,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -1385,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -1394,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -1403,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -1412,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -1421,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -1430,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -1439,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -1448,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -1457,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -1466,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -1475,7 +1484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -1484,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -1493,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -1502,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
@@ -1511,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -1520,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -1529,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -1538,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
@@ -1547,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -1556,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -1565,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -1574,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B91" s="8" t="s">
         <v>7</v>
       </c>
@@ -1584,15 +1593,15 @@
       <c r="F91" s="9"/>
       <c r="G91" s="10">
         <f>SUM(G52:G90)</f>
-        <v>0.10416666666666663</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B94" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B96" s="1" t="s">
         <v>1</v>
       </c>
@@ -1612,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>15</v>
       </c>
@@ -1633,16 +1642,16 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="7">
-        <f t="shared" ref="G97:G135" si="3">F98-E98</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G98:G135" si="3">F98-E98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -1651,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
@@ -1660,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
@@ -1669,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
@@ -1678,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
@@ -1687,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
@@ -1696,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
@@ -1705,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
@@ -1714,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
@@ -1723,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
@@ -1732,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
@@ -1741,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
@@ -1750,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
@@ -1759,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
@@ -1768,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
@@ -1777,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
@@ -1786,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
@@ -1795,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
@@ -1804,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
@@ -1813,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
@@ -1822,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
@@ -1831,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
@@ -1840,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
@@ -1849,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
@@ -1858,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
@@ -1867,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
@@ -1876,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
@@ -1885,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
@@ -1894,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
@@ -1903,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
@@ -1912,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
@@ -1921,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
@@ -1930,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
@@ -1939,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
@@ -1948,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
@@ -1957,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
@@ -1966,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
@@ -1975,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B136" s="8" t="s">
         <v>7</v>
       </c>
@@ -1988,12 +1997,12 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="139" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B139" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B141" s="1" t="s">
         <v>1</v>
       </c>
@@ -2013,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>15</v>
       </c>
@@ -2034,7 +2043,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
         <v>15</v>
       </c>
@@ -2055,7 +2064,7 @@
         <v>7.291666666666663E-2</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>15</v>
       </c>
@@ -2076,7 +2085,7 @@
         <v>5.2083333333333259E-2</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>15</v>
       </c>
@@ -2097,7 +2106,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
@@ -2106,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
@@ -2115,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
@@ -2124,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
@@ -2133,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
@@ -2142,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
@@ -2151,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
@@ -2160,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
@@ -2169,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
@@ -2178,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
@@ -2187,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
@@ -2196,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
@@ -2205,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
@@ -2214,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
@@ -2223,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
@@ -2232,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
@@ -2241,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
@@ -2250,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
@@ -2259,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
@@ -2268,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
@@ -2277,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
@@ -2286,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
@@ -2295,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
@@ -2304,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
@@ -2313,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
@@ -2322,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
@@ -2331,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
@@ -2340,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
@@ -2349,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
@@ -2358,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
@@ -2367,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
@@ -2376,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
@@ -2385,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
@@ -2394,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
@@ -2403,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
@@ -2412,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B181" s="8" t="s">
         <v>7</v>
       </c>
@@ -2425,12 +2434,12 @@
         <v>0.22916666666666652</v>
       </c>
     </row>
-    <row r="184" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B184" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B186" s="1" t="s">
         <v>1</v>
       </c>
@@ -2450,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>15</v>
       </c>
@@ -2471,7 +2480,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>15</v>
       </c>
@@ -2492,15 +2501,28 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E189" s="6"/>
-      <c r="F189" s="6"/>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B189" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189" t="s">
+        <v>20</v>
+      </c>
+      <c r="D189" s="11">
+        <v>43185</v>
+      </c>
+      <c r="E189" s="7">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F189" s="7">
+        <v>0.6875</v>
+      </c>
       <c r="G189" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+        <v>5.208333333333337E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="7">
@@ -2508,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="7">
@@ -2516,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="7">
@@ -2524,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
       <c r="G193" s="7">
@@ -2532,7 +2554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
       <c r="G194" s="7">
@@ -2540,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="7">
@@ -2548,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
       <c r="G196" s="7">
@@ -2556,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="7">
@@ -2564,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="7">
@@ -2572,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
       <c r="G199" s="7">
@@ -2580,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="7">
@@ -2588,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
       <c r="G201" s="7">
@@ -2596,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
       <c r="G202" s="7">
@@ -2604,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
       <c r="G203" s="7">
@@ -2612,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
       <c r="G204" s="7">
@@ -2620,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
       <c r="G205" s="7">
@@ -2628,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
       <c r="G206" s="7">
@@ -2636,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
       <c r="G207" s="7">
@@ -2644,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
       <c r="G208" s="7">
@@ -2652,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
       <c r="G209" s="7">
@@ -2660,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
       <c r="G210" s="7">
@@ -2668,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
       <c r="G211" s="7">
@@ -2676,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
       <c r="G212" s="7">
@@ -2684,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
       <c r="G213" s="7">
@@ -2692,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
       <c r="G214" s="7">
@@ -2700,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
       <c r="G215" s="7">
@@ -2708,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
       <c r="G216" s="7">
@@ -2716,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
       <c r="G217" s="7">
@@ -2724,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
       <c r="G218" s="7">
@@ -2732,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
       <c r="G219" s="7">
@@ -2740,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
       <c r="G220" s="7">
@@ -2748,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
       <c r="G221" s="7">
@@ -2756,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
       <c r="G222" s="7">
@@ -2764,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="7">
@@ -2772,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="7">
@@ -2780,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
       <c r="G225" s="7">
@@ -2788,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B226" s="8" t="s">
         <v>7</v>
       </c>
@@ -2798,10 +2820,10 @@
       <c r="F226" s="9"/>
       <c r="G226" s="10">
         <f>SUM(G187:G225)</f>
-        <v>0.10416666666666663</v>
-      </c>
-    </row>
-    <row r="228" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7" ht="21" x14ac:dyDescent="0.5">
       <c r="B228" s="12" t="s">
         <v>17</v>
       </c>
@@ -2811,7 +2833,7 @@
       <c r="F228" s="13"/>
       <c r="G228" s="14">
         <f>SUM(G46,G91,G136,G181,G226)</f>
-        <v>0.74999999999999978</v>
+        <v>0.85416666666666652</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Zeiterfassung.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majad\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
   <si>
     <t>Stunden</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t xml:space="preserve">Besprechung von Sollzeiten von Funktionen </t>
+  </si>
+  <si>
+    <t>Bearbeitung der Boards in Trello, allgemeine Organisatorische Tätigkeiten</t>
   </si>
 </sst>
 </file>
@@ -250,7 +253,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -755,11 +758,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C48" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.81640625" customWidth="1"/>
     <col min="2" max="2" width="27.453125" customWidth="1"/>
@@ -1643,12 +1646,24 @@
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="11">
+        <v>43179</v>
+      </c>
+      <c r="E98" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="F98" s="7">
+        <v>0.84375</v>
+      </c>
       <c r="G98" s="7">
         <f t="shared" ref="G98:G135" si="3">F98-E98</f>
-        <v>0</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.35">
@@ -1994,7 +2009,7 @@
       <c r="F136" s="9"/>
       <c r="G136" s="10">
         <f>SUM(G97:G135)</f>
-        <v>6.25E-2</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="139" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
@@ -2509,7 +2524,7 @@
         <v>20</v>
       </c>
       <c r="D189" s="11">
-        <v>43185</v>
+        <v>43179</v>
       </c>
       <c r="E189" s="7">
         <v>0.63541666666666663</v>
@@ -2833,7 +2848,7 @@
       <c r="F228" s="13"/>
       <c r="G228" s="14">
         <f>SUM(G46,G91,G136,G181,G226)</f>
-        <v>0.85416666666666652</v>
+        <v>0.94791666666666652</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Zeiterfassung.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="23">
   <si>
     <t>Stunden</t>
   </si>
@@ -91,11 +91,14 @@
   <si>
     <t>Bearbeitung der Boards in Trello, allgemeine Organisatorische Tätigkeiten</t>
   </si>
+  <si>
+    <t>Erstellung des Projekttagebuchs, Review aller bisher erstellten Dokumente</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -758,39 +761,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="81.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="81.5703125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -810,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -831,7 +834,7 @@
         <v>7.291666666666663E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -852,7 +855,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -873,7 +876,7 @@
         <v>0.11458333333333337</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="7">
@@ -881,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7">
@@ -889,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7">
@@ -897,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7">
@@ -905,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7">
@@ -913,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7">
@@ -921,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7">
@@ -929,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7">
@@ -937,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7">
@@ -945,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7">
@@ -953,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="7">
@@ -961,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7">
@@ -969,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7">
@@ -977,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7">
@@ -985,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7">
@@ -993,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7">
@@ -1001,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="7">
@@ -1009,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="7">
@@ -1017,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="7">
@@ -1025,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="7">
@@ -1033,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="7">
@@ -1041,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="7">
@@ -1049,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="7">
@@ -1057,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="7">
@@ -1065,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="7">
@@ -1073,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="7">
@@ -1081,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="7">
@@ -1089,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="7">
@@ -1097,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="7">
@@ -1105,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="7">
@@ -1113,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="7">
@@ -1121,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="7">
@@ -1129,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="7">
@@ -1137,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="7">
@@ -1145,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="7">
@@ -1153,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="7">
@@ -1161,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>7</v>
       </c>
@@ -1174,12 +1177,12 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>1</v>
       </c>
@@ -1199,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>15</v>
       </c>
@@ -1220,7 +1223,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>15</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>15</v>
       </c>
@@ -1262,7 +1265,7 @@
         <v>5.208333333333337E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -1271,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -1280,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -1289,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -1298,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -1307,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -1316,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -1325,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -1334,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -1343,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -1352,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -1361,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -1370,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -1379,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -1388,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -1397,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -1406,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -1415,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -1424,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -1433,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -1442,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -1451,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -1460,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -1469,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -1478,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -1487,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -1496,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -1505,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -1514,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
@@ -1523,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -1532,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -1541,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -1550,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
@@ -1559,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -1568,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -1577,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -1586,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
         <v>7</v>
       </c>
@@ -1599,12 +1602,12 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="94" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B94" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>1</v>
       </c>
@@ -1624,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>15</v>
       </c>
@@ -1645,7 +1648,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>15</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -1675,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
@@ -1684,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
@@ -1693,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
@@ -1702,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
@@ -1711,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
@@ -1720,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
@@ -1729,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
@@ -1738,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
@@ -1747,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
@@ -1756,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
@@ -1765,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
@@ -1774,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
@@ -1783,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
@@ -1792,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
@@ -1801,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
@@ -1810,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
@@ -1819,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
@@ -1828,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
@@ -1837,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
@@ -1846,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
@@ -1855,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
@@ -1864,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
@@ -1873,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
@@ -1882,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
@@ -1891,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
@@ -1900,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
@@ -1909,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
@@ -1918,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
@@ -1927,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
@@ -1936,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
@@ -1945,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
@@ -1954,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
@@ -1963,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
@@ -1972,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
@@ -1981,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
@@ -1990,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
@@ -1999,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="8" t="s">
         <v>7</v>
       </c>
@@ -2012,12 +2015,12 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="139" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B139" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>1</v>
       </c>
@@ -2037,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>15</v>
       </c>
@@ -2058,7 +2061,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>15</v>
       </c>
@@ -2079,7 +2082,7 @@
         <v>7.291666666666663E-2</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>15</v>
       </c>
@@ -2100,7 +2103,7 @@
         <v>5.2083333333333259E-2</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>15</v>
       </c>
@@ -2121,16 +2124,24 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6"/>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" t="s">
+        <v>22</v>
+      </c>
+      <c r="D146" s="11">
+        <v>43179</v>
+      </c>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
       <c r="G146" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
@@ -2139,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
@@ -2148,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
@@ -2157,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
@@ -2166,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
@@ -2175,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
@@ -2184,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
@@ -2193,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
@@ -2202,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
@@ -2211,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
@@ -2220,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
@@ -2229,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
@@ -2238,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
@@ -2247,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
@@ -2256,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
@@ -2265,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
@@ -2274,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
@@ -2283,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
@@ -2292,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
@@ -2301,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
@@ -2310,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
@@ -2319,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
@@ -2328,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
@@ -2337,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
@@ -2346,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
@@ -2355,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
@@ -2364,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
@@ -2373,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
@@ -2382,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
@@ -2391,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
@@ -2400,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
@@ -2409,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
@@ -2418,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
@@ -2427,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
@@ -2436,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
         <v>7</v>
       </c>
@@ -2449,12 +2460,12 @@
         <v>0.22916666666666652</v>
       </c>
     </row>
-    <row r="184" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B184" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>1</v>
       </c>
@@ -2474,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>15</v>
       </c>
@@ -2495,7 +2506,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>15</v>
       </c>
@@ -2516,7 +2527,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>15</v>
       </c>
@@ -2537,7 +2548,7 @@
         <v>5.208333333333337E-2</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="7">
@@ -2545,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="7">
@@ -2553,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="7">
@@ -2561,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
       <c r="G193" s="7">
@@ -2569,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
       <c r="G194" s="7">
@@ -2577,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="7">
@@ -2585,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
       <c r="G196" s="7">
@@ -2593,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="7">
@@ -2601,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="7">
@@ -2609,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
       <c r="G199" s="7">
@@ -2617,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="7">
@@ -2625,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
       <c r="G201" s="7">
@@ -2633,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
       <c r="G202" s="7">
@@ -2641,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="203" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
       <c r="G203" s="7">
@@ -2649,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
       <c r="G204" s="7">
@@ -2657,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="205" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
       <c r="G205" s="7">
@@ -2665,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="206" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
       <c r="G206" s="7">
@@ -2673,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
       <c r="G207" s="7">
@@ -2681,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="208" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
       <c r="G208" s="7">
@@ -2689,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
       <c r="G209" s="7">
@@ -2697,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
       <c r="G210" s="7">
@@ -2705,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
       <c r="G211" s="7">
@@ -2713,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
       <c r="G212" s="7">
@@ -2721,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
       <c r="G213" s="7">
@@ -2729,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
       <c r="G214" s="7">
@@ -2737,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
       <c r="G215" s="7">
@@ -2745,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
       <c r="G216" s="7">
@@ -2753,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
       <c r="G217" s="7">
@@ -2761,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
       <c r="G218" s="7">
@@ -2769,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
       <c r="G219" s="7">
@@ -2777,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
       <c r="G220" s="7">
@@ -2785,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
       <c r="G221" s="7">
@@ -2793,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
       <c r="G222" s="7">
@@ -2801,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="7">
@@ -2809,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="7">
@@ -2817,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
       <c r="G225" s="7">
@@ -2825,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B226" s="8" t="s">
         <v>7</v>
       </c>
@@ -2838,7 +2849,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="228" spans="2:7" ht="21" x14ac:dyDescent="0.5">
+    <row r="228" spans="2:7" ht="21" x14ac:dyDescent="0.35">
       <c r="B228" s="12" t="s">
         <v>17</v>
       </c>

--- a/Dokumente/Zeiterfassung/Zeiterfassung.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung.xlsx
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,11 +2134,15 @@
       <c r="D146" s="11">
         <v>43179</v>
       </c>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
+      <c r="E146" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F146" s="7">
+        <v>0.90625</v>
+      </c>
       <c r="G146" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.11458333333333337</v>
       </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.25">
@@ -2457,7 +2461,7 @@
       <c r="F181" s="9"/>
       <c r="G181" s="10">
         <f>SUM(G142:G180)</f>
-        <v>0.22916666666666652</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="184" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -2859,7 +2863,7 @@
       <c r="F228" s="13"/>
       <c r="G228" s="14">
         <f>SUM(G46,G91,G136,G181,G226)</f>
-        <v>0.94791666666666652</v>
+        <v>1.0625</v>
       </c>
     </row>
   </sheetData>
